--- a/test/Infrastructure/Documents/Excel/ExcelFile.xlsx
+++ b/test/Infrastructure/Documents/Excel/ExcelFile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eReges\src\Apps\eReges.Api\SharedKernel\test\Infrastructure\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5248BE3-5762-425F-B5C0-FD5F94AAD084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F771957-4DD8-48FD-AE05-89EA3600DA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1365" windowWidth="28800" windowHeight="11505"/>
+    <workbookView xWindow="-28920" yWindow="-210" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="username" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>smith79</t>
-  </si>
-  <si>
-    <t>Jamie</t>
   </si>
   <si>
     <t>Smith</t>
@@ -82,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,11 +913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A2:D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>4081</v>
+        <v>2071</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1002,11 +999,8 @@
       <c r="B6">
         <v>5079</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test/Infrastructure/Documents/Excel/ExcelFile.xlsx
+++ b/test/Infrastructure/Documents/Excel/ExcelFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eReges\src\Apps\eReges.Api\SharedKernel\test\Infrastructure\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F771957-4DD8-48FD-AE05-89EA3600DA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810FEF92-89E0-4117-B728-C7091610B671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-210" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="username" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Username</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Smith</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -557,8 +560,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,15 +918,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,8 +942,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -949,8 +959,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="1">
+        <v>45291</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="1">
+        <v>45292</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -977,8 +993,9 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -991,8 +1008,11 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" s="1">
+        <v>45294</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1002,6 +1022,7 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
